--- a/biology/Botanique/Hieracium/Hieracium.xlsx
+++ b/biology/Botanique/Hieracium/Hieracium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hieracium est un genre de plantes à fleurs appelées communément épervières, de la famille des Astéracées.
-Ce sont des plantes à capitules tous ligulés et de couleur jaune (sauf Hieracium aurantiacum qui a des fleurs orange à rouges). Ce genre rassemble plus de 6 000 espèces et sous-espèces essentiellement montagnardes dont la détermination reste délicate en raison de l'action conjointe de l'apomixie, de l'hybridation et de la polyploïdie[1].
+Ce sont des plantes à capitules tous ligulés et de couleur jaune (sauf Hieracium aurantiacum qui a des fleurs orange à rouges). Ce genre rassemble plus de 6 000 espèces et sous-espèces essentiellement montagnardes dont la détermination reste délicate en raison de l'action conjointe de l'apomixie, de l'hybridation et de la polyploïdie.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hieracium est un terme latin construit à partir du mot grec ancien Hierax qui désigne les rapaces diurnes plus petits que les aigles comme les faucons ou les éperviers. Cette plante est nommée ainsi car une légende rapportée par Pline[2] prétend que certaines espèces croissant sur des parois rocheuses accessibles à ces seuls rapaces, favorisaient l'acuité visuelle des oiseaux qui absorbaient leur suc laiteux. Cette légende est peut-être due aux pétales munis de cinq dents qui évoquent grossièrement le bout des ailes de ces rapaces, ou un héritage de la théorie des signatures, en vertu de laquelle le latex de la plante était employé contre les inflammations des yeux et pour fortifier la vue[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hieracium est un terme latin construit à partir du mot grec ancien Hierax qui désigne les rapaces diurnes plus petits que les aigles comme les faucons ou les éperviers. Cette plante est nommée ainsi car une légende rapportée par Pline prétend que certaines espèces croissant sur des parois rocheuses accessibles à ces seuls rapaces, favorisaient l'acuité visuelle des oiseaux qui absorbaient leur suc laiteux. Cette légende est peut-être due aux pétales munis de cinq dents qui évoquent grossièrement le bout des ailes de ces rapaces, ou un héritage de la théorie des signatures, en vertu de laquelle le latex de la plante était employé contre les inflammations des yeux et pour fortifier la vue,.
 </t>
         </is>
       </c>
@@ -545,10 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Hémicryptophytes cespiteux ou à rosettes, les épervières sont des plantes herbacées, vivaces par des racines pivotantes à effet allélopathique et qui se multiplient par voie végétative grâce à des bourgeons adventifs écailleux souterrains ou des bourgeons axillaires à la base des souches (chez les Piloselles, cette reproduction est assurée par les stolons aériens). Les tiges, simples ou ramifiées, portent des feuilles caulinaires alternes, sessiles ou pédonculées. Les feuilles inférieures sont regroupées en rosette basale. Souvent poilue, cette plante est parfois glandulaire, ses feuilles sont alternes ou toutes basales[4].
-Appareil reproducteur
-Les capitules renfermant chacun un grand nombre de fleurs jaune soufre (ce qui les distingue des pissenlits), parfois blanches ou blanc jaunâtre (plus rarement orangées), sont souvent groupées en panicule corymbiforme, plus rarement solitaires. Ils sont protégés par un involucre à bractées  (généralement de 5 à 21, ovales, lancéo-linéaires) imbriquées sur un rang très irrégulier ou sur plusieurs rangs ne formant pas de calicule. Le réceptacle floral à alvéoles plates est dépourvu d'écailles. Astéracée liguliflore, les fleurs sont toutes ligulées à cinq dents (correspondant à la soudure de 5 pétales). Le calice est réduit à des écailles. Le pollen possède aussi un effet allélopathique sur des plantes hétérospécifiques de la famille des Astéracées[5]. Les fruits sont des « akènes » cylindriques comprimés, munis de 8 à 10 côtes longitudinales, nullement atténués au sommet qui est nettement tronqué[4]. Ils sont couronnés d'une aigrette sessile de 2 rangs de 20 à 80 soies simples et roussâtres[6], appelée pappus, adaptée à la zoochorie et à l'anémochorie, notamment à la dispersion transocéanique des graines par le vent, ce qui favorise la spéciation allopatrique[7].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hémicryptophytes cespiteux ou à rosettes, les épervières sont des plantes herbacées, vivaces par des racines pivotantes à effet allélopathique et qui se multiplient par voie végétative grâce à des bourgeons adventifs écailleux souterrains ou des bourgeons axillaires à la base des souches (chez les Piloselles, cette reproduction est assurée par les stolons aériens). Les tiges, simples ou ramifiées, portent des feuilles caulinaires alternes, sessiles ou pédonculées. Les feuilles inférieures sont regroupées en rosette basale. Souvent poilue, cette plante est parfois glandulaire, ses feuilles sont alternes ou toutes basales.
 </t>
         </is>
       </c>
@@ -574,14 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Caractéristiques</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'épervière est dite à bon droit, au même titre que les Ronces et les Roses, « la croix des botanistes ». Les anciens regardaient plusieurs espèces (notamment l'épervière des murs appelée « la souveraine ») comme une panacée pour guérir presque toutes les maladies. Le latex blanc qui s'écoule au moindre traumatisme fut notamment utilisé pour soigner les plaies et les blessures[8]. Les recherches actuelles confirment ces vertus[9] : ces espèces contiennent notamment de l'acide chlorogénique aux activités pharmacologiques, des flavonoïdes aux effets protecteurs et de l'ombelliférone qui a des propriétés antibiotiques, antioxydantes, anti-inflammatoires, anti-hyperglycémiques et anti-tumorales[10].
-Ce latex peut se coaguler en gomme brune quand on l'expose au soleil pendant quelques heures. Cet effet fut ainsi recherché par des écoliers pour obtenir un substitut du chewing-gum[11].
-Plusieurs espèces du genre Hieracium ont servi de modèle pour les expériences de Gregor Mendel sur l'hybridation. Mendel a réalisé des croisements entre différentes espèces de Hieracium pour expliquer la constance apparente de certaines formes hybrides[12].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les capitules renfermant chacun un grand nombre de fleurs jaune soufre (ce qui les distingue des pissenlits), parfois blanches ou blanc jaunâtre (plus rarement orangées), sont souvent groupées en panicule corymbiforme, plus rarement solitaires. Ils sont protégés par un involucre à bractées  (généralement de 5 à 21, ovales, lancéo-linéaires) imbriquées sur un rang très irrégulier ou sur plusieurs rangs ne formant pas de calicule. Le réceptacle floral à alvéoles plates est dépourvu d'écailles. Astéracée liguliflore, les fleurs sont toutes ligulées à cinq dents (correspondant à la soudure de 5 pétales). Le calice est réduit à des écailles. Le pollen possède aussi un effet allélopathique sur des plantes hétérospécifiques de la famille des Astéracées. Les fruits sont des « akènes » cylindriques comprimés, munis de 8 à 10 côtes longitudinales, nullement atténués au sommet qui est nettement tronqué. Ils sont couronnés d'une aigrette sessile de 2 rangs de 20 à 80 soies simples et roussâtres, appelée pappus, adaptée à la zoochorie et à l'anémochorie, notamment à la dispersion transocéanique des graines par le vent, ce qui favorise la spéciation allopatrique.
 </t>
         </is>
       </c>
@@ -607,14 +628,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épervière est dite à bon droit, au même titre que les Ronces et les Roses, « la croix des botanistes ». Les anciens regardaient plusieurs espèces (notamment l'épervière des murs appelée « la souveraine ») comme une panacée pour guérir presque toutes les maladies. Le latex blanc qui s'écoule au moindre traumatisme fut notamment utilisé pour soigner les plaies et les blessures. Les recherches actuelles confirment ces vertus : ces espèces contiennent notamment de l'acide chlorogénique aux activités pharmacologiques, des flavonoïdes aux effets protecteurs et de l'ombelliférone qui a des propriétés antibiotiques, antioxydantes, anti-inflammatoires, anti-hyperglycémiques et anti-tumorales.
+Ce latex peut se coaguler en gomme brune quand on l'expose au soleil pendant quelques heures. Cet effet fut ainsi recherché par des écoliers pour obtenir un substitut du chewing-gum.
+Plusieurs espèces du genre Hieracium ont servi de modèle pour les expériences de Gregor Mendel sur l'hybridation. Mendel a réalisé des croisements entre différentes espèces de Hieracium pour expliquer la constance apparente de certaines formes hybrides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hieracium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hieracium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hieracium murorum (L., 1753) est désigné comme le lectotype du genre Hieracium par Britton et Brown en 1913[13].
-Quelques espèces
-Au sein des Astéracées, les principaux genres sont Senecio (1 500 espèces), Vernonia (1 000 espèces), Cousinia et Eupatorium (600 espèces), Hieracium, Helichrysum et Artemisia (500 espèces). Les épervières sont le genre d'Astéracées le plus représenté dans la flore française, avec au moins une quarantaine d'espèces recensées[14].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hieracium murorum (L., 1753) est désigné comme le lectotype du genre Hieracium par Britton et Brown en 1913.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hieracium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hieracium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Au sein des Astéracées, les principaux genres sont Senecio (1 500 espèces), Vernonia (1 000 espèces), Cousinia et Eupatorium (600 espèces), Hieracium, Helichrysum et Artemisia (500 espèces). Les épervières sont le genre d'Astéracées le plus représenté dans la flore française, avec au moins une quarantaine d'espèces recensées.
 Hieracium aurantiacum - Piloselle orangée
 Hieracium lanatum - Épervière laineuse
 Hieracium mixtum - Épervière mixte
@@ -622,9 +715,43 @@
 Hieracium peleterianum - Piloselle de Lepèletier
 Hieracium pilosella - Piloselle ou Épervière piloselle
 Hieracium glaucinum - Epervière bleuâtre ou Epervière précoce
-Hieracium villosum - Épervière velue
-Listes d'espèces
-Selon NCBI  (30 déc. 2010)[15] :
+Hieracium villosum - Épervière velue</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hieracium</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hieracium</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Listes d'espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 déc. 2010) :
 Hieracium abscissum
 Hieracium albiflorum
 Hieracium alpicola
@@ -759,7 +886,7 @@
 Hieracium verruculatum
 Hieracium villosum
 Hieracium virosum
-Selon ITIS      (30 déc. 2010)[16] :
+Selon ITIS      (30 déc. 2010) :
 Hieracium abscissum Less.
 Hieracium albiflorum Hook.
 Hieracium × alleghaniense Britton (pro sp.)
